--- a/biology/Virologie/28_(livre)/28_(livre).xlsx
+++ b/biology/Virologie/28_(livre)/28_(livre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 28: Stories of AIDS in Africa (28 témoins du sida en Afrique) est un livre anglophone de 2007 par Stephanie Nolen (en), journaliste et écrivain canadienne et la correspondante africaine pour The Globe and Mail, un quotidien canadien anglophone.
@@ -513,7 +525,9 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephen Lewis, ancien délégué spécial d'ONU pour le sida en Afrique, a dit que ce livre était « possiblement un des meilleurs livres écrits au sujet du sida. »
 </t>
@@ -544,7 +558,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Random House, 2007  (ISBN 978-0-8027-1598-2)
 Actes Sud, 2008  (ISBN 978-2-7427-7333-6)</t>
